--- a/xlsx/nfeature: 512, hamming_tolerance: 50, k_knn: 7.xlsx
+++ b/xlsx/nfeature: 512, hamming_tolerance: 50, k_knn: 7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,10 +428,10 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.602</v>
+        <v>0.497</v>
       </c>
       <c r="C1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D1" t="n">
         <v>0.88</v>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.046</v>
+        <v>0.865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D2" t="n">
         <v>0.888</v>
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.033</v>
+        <v>0.835</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D3" t="n">
         <v>0.904</v>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.603</v>
+        <v>0.437</v>
       </c>
       <c r="C4" t="n">
         <v>0.001</v>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.608</v>
+        <v>0.442</v>
       </c>
       <c r="C5" t="n">
         <v>0.001</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.737</v>
+        <v>1.22</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D6" t="n">
-        <v>0.619</v>
+        <v>0.629</v>
       </c>
       <c r="E6" t="n">
-        <v>0.857</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D7" t="n">
-        <v>0.745</v>
+        <v>0.777</v>
       </c>
       <c r="E7" t="n">
-        <v>0.571</v>
+        <v>0.857</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.673</v>
+        <v>1.316</v>
       </c>
       <c r="C8" t="n">
         <v>0.004</v>
       </c>
       <c r="D8" t="n">
-        <v>0.972</v>
+        <v>0.97</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.458</v>
+        <v>1.114</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D9" t="n">
-        <v>0.717</v>
+        <v>0.755</v>
       </c>
       <c r="E9" t="n">
         <v>0.857</v>
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.753</v>
+        <v>1.253</v>
       </c>
       <c r="C10" t="n">
         <v>0.004</v>
       </c>
       <c r="D10" t="n">
-        <v>0.76</v>
+        <v>0.754</v>
       </c>
       <c r="E10" t="n">
-        <v>0.571</v>
+        <v>0.857</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.956</v>
+        <v>0.85</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D11" t="n">
         <v>0.792</v>
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.319</v>
+        <v>1.086</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D12" t="n">
         <v>0.948</v>
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.962</v>
+        <v>0.831</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.17</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="C14" t="n">
         <v>0.003</v>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.137</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>0.003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.87</v>
+        <v>0.865</v>
       </c>
       <c r="E15" t="n">
         <v>0.857</v>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.918</v>
+        <v>0.713</v>
       </c>
       <c r="C16" t="n">
         <v>0.002</v>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.92</v>
+        <v>0.699</v>
       </c>
       <c r="C17" t="n">
         <v>0.002</v>
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.281</v>
+        <v>1.01</v>
       </c>
       <c r="C18" t="n">
         <v>0.003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.906</v>
+        <v>0.907</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.655</v>
       </c>
       <c r="C19" t="n">
         <v>0.002</v>
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.212</v>
+        <v>0.988</v>
       </c>
       <c r="C20" t="n">
         <v>0.003</v>
       </c>
       <c r="D20" t="n">
-        <v>0.836</v>
+        <v>0.827</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1008,10 +1008,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.701</v>
+        <v>0.521</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D21" t="n">
         <v>0.798</v>
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.327</v>
+        <v>1.119</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.719</v>
+        <v>0.716</v>
       </c>
       <c r="E22" t="n">
         <v>0.571</v>
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.298</v>
+        <v>1.126</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D23" t="n">
-        <v>0.869</v>
+        <v>0.864</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.394</v>
+        <v>1.157</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D24" t="n">
-        <v>0.931</v>
+        <v>0.924</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.397</v>
+        <v>1.167</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.931</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1153,16 +1153,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.228</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>0.003</v>
       </c>
       <c r="D26" t="n">
-        <v>0.53</v>
+        <v>0.531</v>
       </c>
       <c r="E26" t="n">
-        <v>0.857</v>
+        <v>0.714</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.44</v>
+        <v>1.174</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D27" t="n">
-        <v>0.93</v>
+        <v>0.929</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.489</v>
+        <v>1.185</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.923</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.009</v>
+        <v>0.896</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D29" t="n">
         <v>0.89</v>
@@ -1269,13 +1269,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.421</v>
+        <v>1.173</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D30" t="n">
-        <v>0.888</v>
+        <v>0.88</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1298,13 +1298,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.909</v>
+        <v>0.658</v>
       </c>
       <c r="C31" t="n">
         <v>0.002</v>
       </c>
       <c r="D31" t="n">
-        <v>0.806</v>
+        <v>0.832</v>
       </c>
       <c r="E31" t="n">
         <v>0.286</v>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="C32" t="n">
         <v>0.002</v>
       </c>
       <c r="D32" t="n">
-        <v>0.781</v>
+        <v>0.79</v>
       </c>
       <c r="E32" t="n">
         <v>0.286</v>
@@ -1356,16 +1356,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.116</v>
+        <v>1.034</v>
       </c>
       <c r="C33" t="n">
         <v>0.003</v>
       </c>
       <c r="D33" t="n">
-        <v>0.666</v>
+        <v>0.889</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0.571</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1385,16 +1385,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.104</v>
+        <v>1.233</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="D34" t="n">
-        <v>0.705</v>
+        <v>0.853</v>
       </c>
       <c r="E34" t="n">
-        <v>0.857</v>
+        <v>0.714</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1414,13 +1414,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.491</v>
+        <v>1.271</v>
       </c>
       <c r="C35" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D35" t="n">
-        <v>0.913</v>
+        <v>0.902</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -1439,24 +1439,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TO_1.png</t>
+          <t>FY_4.png</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.211</v>
+        <v>1.167</v>
       </c>
       <c r="C36" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D36" t="n">
-        <v>0.869</v>
+        <v>0.841</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0.714</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tiara Oktavian</t>
+          <t>Fanny Yusuf</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1468,17 +1468,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TO_2.png</t>
+          <t>TO_1.png</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.24</v>
+        <v>0.822</v>
       </c>
       <c r="C37" t="n">
         <v>0.003</v>
       </c>
       <c r="D37" t="n">
-        <v>0.87</v>
+        <v>0.806</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -1497,17 +1497,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TO_3.png</t>
+          <t>TO_2.png</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.145</v>
+        <v>0.914</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D38" t="n">
-        <v>0.872</v>
+        <v>0.867</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1526,46 +1526,46 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TO_4.png</t>
+          <t>TO_3.png</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.755</v>
+        <v>0.847</v>
       </c>
       <c r="C39" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="D39" t="n">
-        <v>0.619</v>
+        <v>0.858</v>
       </c>
       <c r="E39" t="n">
-        <v>0.429</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Tiara Oktavian</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TO_5.png</t>
+          <t>TO_4.png</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.184</v>
+        <v>2.245</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="D40" t="n">
-        <v>0.86</v>
+        <v>0.506</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -1584,49 +1584,49 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TD_1.png</t>
+          <t>TO_5.png</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.302</v>
+        <v>1.981</v>
       </c>
       <c r="C41" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="D41" t="n">
-        <v>0.446</v>
+        <v>0.463</v>
       </c>
       <c r="E41" t="n">
-        <v>0.571</v>
+        <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tiara Oktavian</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TD_2.png</t>
+          <t>TD_1.png</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.553</v>
+        <v>1.47</v>
       </c>
       <c r="C42" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D42" t="n">
-        <v>0.396</v>
+        <v>0.421</v>
       </c>
       <c r="E42" t="n">
-        <v>0.429</v>
+        <v>0.286</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1642,58 +1642,87 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TD_3.png</t>
+          <t>TD_2.png</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.391</v>
+        <v>1.507</v>
       </c>
       <c r="C43" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="D43" t="n">
-        <v>0.748</v>
+        <v>0.372</v>
       </c>
       <c r="E43" t="n">
-        <v>0.286</v>
+        <v>0.571</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Muhammad Iqbal Baqi</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>TD_3.png</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Benar</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>TD_4.png</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>1.161</v>
-      </c>
-      <c r="C44" t="n">
+      <c r="B45" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="C45" t="n">
         <v>0.003</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Fanny Yusuf</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Salah</t>
+      <c r="D45" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Benar</t>
         </is>
       </c>
     </row>
